--- a/Test/CS666 Assignment 1(1-19).xlsx
+++ b/Test/CS666 Assignment 1(1-19).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3f498ea306ac66b1/Escritorio/Python Projects/FeedbackBot/FeedbackDiscordBot/Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{B427EF24-D823-46A3-800A-7C115C6BA234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36B9DDCF-434A-4E67-B368-A016905F97E2}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{B427EF24-D823-46A3-800A-7C115C6BA234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A214DD2E-4C71-4A28-B596-35D9933047D6}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="125">
   <si>
     <t>ID</t>
   </si>
@@ -432,6 +432,9 @@
   </si>
   <si>
     <t>edward_jg</t>
+  </si>
+  <si>
+    <t>Grade</t>
   </si>
 </sst>
 </file>
@@ -485,7 +488,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -532,21 +538,26 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K21" totalsRowShown="0">
-  <autoFilter ref="A1:K21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Last modified time" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Please fork https://github.com/bostonGFX/cs666student !" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="After completing the assignment (link above), please share your work on your github fork!" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Discord Username" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Credits / Acknowledgements" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{95FECE5E-8726-4E27-991C-7A8206CBA39E}" name="Feedback" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L21" totalsRowShown="0">
+  <autoFilter ref="A1:L21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Last modified time" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Please fork https://github.com/bostonGFX/cs666student !" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="After completing the assignment (link above), please share your work on your github fork!" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Discord Username" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Credits / Acknowledgements" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{95FECE5E-8726-4E27-991C-7A8206CBA39E}" name="Feedback" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{79CED689-E1DB-45C5-BD11-EEA16282C5A1}" name="Grade" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -849,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,7 +871,7 @@
     <col min="1" max="10" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -894,8 +905,11 @@
       <c r="K1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -924,8 +938,11 @@
       <c r="J2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -954,8 +971,11 @@
       <c r="J3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -984,8 +1004,11 @@
       <c r="J4" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1014,8 +1037,11 @@
       <c r="J5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1041,8 +1067,11 @@
       <c r="I6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1071,8 +1100,11 @@
       <c r="J7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1098,8 +1130,11 @@
       <c r="I8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1128,8 +1163,11 @@
       <c r="J9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1158,8 +1196,11 @@
       <c r="J10" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1188,8 +1229,11 @@
       <c r="J11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1218,8 +1262,11 @@
       <c r="J12" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1248,8 +1295,11 @@
       <c r="J13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1278,8 +1328,11 @@
       <c r="J14" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1308,8 +1361,11 @@
       <c r="J15" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1338,8 +1394,11 @@
       <c r="J16" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1368,8 +1427,11 @@
       <c r="J17" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1398,8 +1460,11 @@
       <c r="J18" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1428,8 +1493,11 @@
       <c r="J19" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1458,8 +1526,11 @@
       <c r="J20" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1471,6 +1542,9 @@
       </c>
       <c r="K21" t="s">
         <v>122</v>
+      </c>
+      <c r="L21">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
